--- a/テストケース/testsheet.xlsx
+++ b/テストケース/testsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="213">
   <si>
     <t>テスト項目</t>
   </si>
@@ -70,13 +70,25 @@
     <t>１０文字まで入力可能</t>
   </si>
   <si>
+    <t>サトウ</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>11文字以上は入力不可</t>
+  </si>
+  <si>
     <t>「名前（姓）」未入力</t>
   </si>
   <si>
     <t>「確認する」を押下</t>
   </si>
   <si>
-    <t>「名前（姓）が未入力です」と表示</t>
+    <t>赤字で「名前（姓）が未入力です」と表示</t>
+  </si>
+  <si>
+    <t>✕</t>
   </si>
   <si>
     <t>確認ボタンを押しても何も表示されず、反応しない</t>
@@ -88,16 +100,22 @@
     <t>未入力時のページの遷移を防ぐ。</t>
   </si>
   <si>
+    <t>ページは遷移せず</t>
+  </si>
+  <si>
     <t>名前（名）</t>
   </si>
   <si>
     <t>「名前（名）」に10文字以上入力</t>
   </si>
   <si>
+    <t>10文字まで入力可能</t>
+  </si>
+  <si>
     <t>「名前（名）」未入力</t>
   </si>
   <si>
-    <t>「名前（名）が未入力です」と表示</t>
+    <t>赤字で「名前（名）が未入力です」と表示</t>
   </si>
   <si>
     <t>「名前（姓）が未入力です」
@@ -107,11 +125,6 @@
     <t>「名前（名）」のみ未入力</t>
   </si>
   <si>
-    <t>「名前（姓）が未入力です」
-「名前（名）が未入力です」と表示
-ページは遷移せず。</t>
-  </si>
-  <si>
     <t>カナ（姓）</t>
   </si>
   <si>
@@ -121,7 +134,10 @@
     <t>「カナ（姓）」未入力</t>
   </si>
   <si>
-    <t>「カナ（姓）が未入力です。」と表示</t>
+    <t>赤字で「カナ（姓）が未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）が未入力です。」と表示された</t>
   </si>
   <si>
     <t>「カナ（姓）」のみ未入力</t>
@@ -130,7 +146,10 @@
     <t>「カナ（姓）」にカタカナ以外を入力</t>
   </si>
   <si>
-    <t>「カタカナで入力してください。」と表示</t>
+    <t>赤字で「カタカナで入力してください。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「カタカナで入力してください。」と表示された</t>
   </si>
   <si>
     <t>カナ（名）</t>
@@ -142,7 +161,10 @@
     <t>「カナ（名）」未入力</t>
   </si>
   <si>
-    <t>「カナ（名）が未入力です。」と表示</t>
+    <t>赤字で「カナ（名）が未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（名）が未入力です。」と表示された</t>
   </si>
   <si>
     <t>「カナ（名）」のみ未入力</t>
@@ -157,7 +179,10 @@
     <t>「メールアドレス」未入力</t>
   </si>
   <si>
-    <t>「メールアドレスが未入力です。」と表示</t>
+    <t>赤字で「メールアドレスが未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスが未入力です。」が表示された</t>
   </si>
   <si>
     <t>「メールアドレス」のみ未入力</t>
@@ -179,6 +204,9 @@
 アドレスの形式をエラー表示</t>
   </si>
   <si>
+    <t>入力チェックが作動した</t>
+  </si>
+  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -188,14 +216,16 @@
     <t>「パスワード」未入力</t>
   </si>
   <si>
-    <t>「パスワードが未入力です。」と表示</t>
+    <t>赤字で「パスワードが未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「パスワードが未入力です。」が表示された</t>
   </si>
   <si>
     <t>「パスワード」のみ未入力</t>
   </si>
   <si>
-    <t>「パスワードが未入力です。」と表示
-ページの遷移を防ぐ。</t>
+    <t>ページの遷移を防ぐ。</t>
   </si>
   <si>
     <t>郵便番号</t>
@@ -204,7 +234,10 @@
     <t>「郵便番号」未入力</t>
   </si>
   <si>
-    <t>「郵便番号が未入力です。」と表示</t>
+    <t>赤字で「郵便番号が未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「郵便番号が未入力です。」が表示された</t>
   </si>
   <si>
     <t>「郵便番号」のみ未入力</t>
@@ -213,7 +246,10 @@
     <t>「郵便番号」に数字以外を入力</t>
   </si>
   <si>
-    <t>「数字以外が含まれています。」と表示</t>
+    <t>赤字で「数字以外が含まれています。」と表示</t>
+  </si>
+  <si>
+    <t>特に表示はなかった</t>
   </si>
   <si>
     <t>確認を押しても反応しないので
@@ -239,19 +275,22 @@
     <t>赤字で「都道府県を選択してください」を表示</t>
   </si>
   <si>
+    <t>赤字で「都道府県を選択してください」が表示された</t>
+  </si>
+  <si>
     <t>住所(市区町村）</t>
   </si>
   <si>
     <t>「住所(市区町村)」に10文字以上入力</t>
   </si>
   <si>
-    <t>10文字まで入力可能</t>
-  </si>
-  <si>
     <t>「住所(市区町村)」 未入力</t>
   </si>
   <si>
-    <t>「住所(市区町村) が未入力です。」と表示</t>
+    <t>赤字で「住所(市区町村) が未入力です。」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「住所(市区町村) が未入力です。」が表示された</t>
   </si>
   <si>
     <t>「住所(市区町村)」 のみ未入力</t>
@@ -260,7 +299,10 @@
     <t>「住所(市区町村) 」に英字を入力</t>
   </si>
   <si>
-    <t>「英字が含まれています」と表示</t>
+    <t>赤字で「英字が含まれています」と表示</t>
+  </si>
+  <si>
+    <t>赤字で「英字が含まれています」が表示された</t>
   </si>
   <si>
     <t>住所(番地)</t>
@@ -290,6 +332,9 @@
     <t>「アカウント登録確認画面」へ遷移</t>
   </si>
   <si>
+    <t>「アカウント登録確認画面」へ遷移された</t>
+  </si>
+  <si>
     <t>アカウント登録確認画面</t>
   </si>
   <si>
@@ -300,6 +345,9 @@
 名前（姓）の横に値が表示されるか</t>
   </si>
   <si>
+    <t>表示された</t>
+  </si>
+  <si>
     <t>値が入っていた時、
 名前（名）の横に値が表示されるか</t>
   </si>
@@ -362,6 +410,9 @@
   </si>
   <si>
     <t>「アカウント登録画面」に遷移</t>
+  </si>
+  <si>
+    <t>遷移された</t>
   </si>
   <si>
     <t>空の値を受け取った時の
@@ -405,6 +456,9 @@
 このエラー画面に遷移したい</t>
   </si>
   <si>
+    <t>エラー画面に遷移</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
@@ -430,6 +484,66 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">「アカウント登録確認画面」に遷移
+</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「名前（姓）」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で入力したものが
+表示されていた</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「名前（名）」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「カナ（姓）」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「カナ（名）」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「メールアドレス」に
+入力したものが「アカウント登録確認画面」で
+出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「パスワード」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「性別」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「郵便番号」に入力したものが
+「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「住所（都道府県）」に
+入力したものが「アカウント登録確認画面」で
+出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「住所（市区町村）」に
+入力したものが「アカウント登録確認画面」で
+出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「住所（番地）」に入力したもの
+が「アカウント登録確認画面」で出力されているか</t>
+  </si>
+  <si>
+    <t>「アカウント登録画面」で「アカウント権限」に
+入力したものが「アカウント登録確認画面」で
+出力されているか</t>
+  </si>
+  <si>
     <t>アカウント登録確認画面→アカウント登録画面</t>
   </si>
   <si>
@@ -447,6 +561,10 @@
 入力情報が保持されているか。</t>
   </si>
   <si>
+    <t>「アカウント登録確画面」で
+入力された値が表示された。</t>
+  </si>
+  <si>
     <t>「アカウント登録確認画面」の「名前（名）」に
 入力情報が保持されているか。</t>
   </si>
@@ -503,7 +621,7 @@
     <t>「登録する」を押下</t>
   </si>
   <si>
-    <t>「アカウント完了画面」に遷移</t>
+    <t>「アカウント登録完了画面」に遷移</t>
   </si>
   <si>
     <t>データベースでの確認</t>
@@ -515,56 +633,112 @@
     <t>「id」が自動で振り分けられているか確認</t>
   </si>
   <si>
+    <t>「id」が自動で振り分けらていた</t>
+  </si>
+  <si>
     <t>「family_name」に登録されているか確認</t>
   </si>
   <si>
+    <t>「family_name」に登録されていた</t>
+  </si>
+  <si>
     <t>「last_name」に登録されているか確認</t>
   </si>
   <si>
+    <t>「last_name」に登録されていた</t>
+  </si>
+  <si>
     <t>「family_name_kana」に登録されているか確認</t>
   </si>
   <si>
+    <t>「family_name_kana」に登録されていた</t>
+  </si>
+  <si>
     <t>「last_name_kana」に登録されているか確認</t>
   </si>
   <si>
+    <t>「last_name_kana」に登録されていた</t>
+  </si>
+  <si>
     <t>「mail」に登録されているか確認</t>
+  </si>
+  <si>
+    <t>「mail」に登録されていた</t>
   </si>
   <si>
     <t>「passeord」に登録されているか確認
 またハッシュ化されているかも確認</t>
   </si>
   <si>
+    <t>「passeord」に登録されていて、
+またハッシュ化もされていた</t>
+  </si>
+  <si>
     <t>「gender」に登録されているか確認
 0が男　１が女</t>
   </si>
   <si>
+    <t>「gender」に登録されていた
+男を選択の場合0　
+女が選択されていた場合1　も確認済み</t>
+  </si>
+  <si>
     <t>「postal_code」に登録されているか確認</t>
   </si>
   <si>
+    <t>「postal_code」に登録されていた</t>
+  </si>
+  <si>
     <t>「prefecture」に登録されているか確認</t>
   </si>
   <si>
+    <t>「prefecture」に登録されていた</t>
+  </si>
+  <si>
     <t>「address_1」に登録されているか確認</t>
   </si>
   <si>
+    <t>「address_1」に登録されていた</t>
+  </si>
+  <si>
     <t>「address_2」に登録されているか確認</t>
+  </si>
+  <si>
+    <t>「address_2」に登録されていた</t>
   </si>
   <si>
     <t>「authority」に登録されているか確認
 0が一般　１が管理者</t>
   </si>
   <si>
+    <t>「authority」に登録されていた
+一般の場合0
+管理者の場合1　も確認済み</t>
+  </si>
+  <si>
     <t>登録日時</t>
   </si>
   <si>
     <t>「registered_time」に登録されているか確認</t>
+  </si>
+  <si>
+    <t>「registered_time」に登録されていた</t>
+  </si>
+  <si>
+    <t>空白のデータが送られていないか確認</t>
+  </si>
+  <si>
+    <t>データは送られていなかった</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -574,12 +748,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -587,8 +760,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="Meiryo"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -599,6 +773,19 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="10.0"/>
+      <name val="Meiryo"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -627,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -705,11 +892,19 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -728,13 +923,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -749,16 +944,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -767,10 +959,10 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -779,210 +971,220 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,12 +1407,12 @@
     <col customWidth="1" min="4" max="4" width="27.0"/>
     <col customWidth="1" min="5" max="6" width="39.0"/>
     <col customWidth="1" min="7" max="7" width="31.43"/>
-    <col customWidth="1" min="8" max="8" width="50.86"/>
+    <col customWidth="1" min="8" max="8" width="52.43"/>
     <col customWidth="1" min="9" max="9" width="2.86"/>
     <col customWidth="1" min="10" max="10" width="9.14"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
     <col customWidth="1" min="12" max="12" width="11.86"/>
-    <col customWidth="1" min="13" max="13" width="31.43"/>
+    <col customWidth="1" min="13" max="13" width="50.0"/>
     <col customWidth="1" min="14" max="14" width="55.71"/>
   </cols>
   <sheetData>
@@ -1277,615 +1479,815 @@
       <c r="A4" s="2"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>22</v>
       </c>
+      <c r="G6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" ht="38.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="H7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="31" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" ht="41.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="21" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" ht="34.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" ht="29.25" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" ht="29.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="31" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" ht="37.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" ht="37.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" ht="59.25" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="42"/>
     </row>
     <row r="24" ht="31.5" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" ht="31.5" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" ht="43.5" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27" ht="43.5" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
-        <v>65</v>
+      <c r="B28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="39.0" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" ht="39.0" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="51"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -1909,205 +2311,277 @@
     </row>
     <row r="31" ht="39.0" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" ht="39.0" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" ht="39.0" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" ht="43.5" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35" ht="34.5" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" ht="39.0" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36" s="42"/>
     </row>
     <row r="37" ht="43.5" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="J37" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="42"/>
     </row>
     <row r="38" ht="34.5" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="42"/>
     </row>
     <row r="39" ht="113.25" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="25"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -2131,329 +2605,457 @@
     </row>
     <row r="40" ht="37.5" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="50" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" s="42"/>
     </row>
     <row r="41" ht="37.5" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="39"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="35"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="40"/>
+      <c r="H41" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="42"/>
     </row>
     <row r="42" ht="38.25" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" s="42"/>
     </row>
     <row r="43" ht="41.25" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N43" s="42"/>
     </row>
     <row r="44" ht="44.25" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" s="42"/>
     </row>
     <row r="45" ht="48.75" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N45" s="42"/>
     </row>
     <row r="46" ht="31.5" customHeight="1">
-      <c r="B46" s="28"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="43"/>
+      <c r="J46" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" s="42"/>
     </row>
     <row r="47" ht="34.5" customHeight="1">
-      <c r="B47" s="28"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="43"/>
+      <c r="J47" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" s="42"/>
     </row>
     <row r="48" ht="31.5" customHeight="1">
-      <c r="B48" s="28"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="43"/>
+      <c r="J48" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" s="42"/>
     </row>
     <row r="49" ht="33.75" customHeight="1">
-      <c r="B49" s="28"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="43"/>
+      <c r="J49" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" s="42"/>
     </row>
     <row r="50" ht="32.25" customHeight="1">
-      <c r="B50" s="28"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="43"/>
+      <c r="J50" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="42"/>
     </row>
     <row r="51" ht="35.25" customHeight="1">
-      <c r="B51" s="28"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="43"/>
+      <c r="J51" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" s="42"/>
     </row>
     <row r="52" ht="50.25" customHeight="1">
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="42"/>
     </row>
     <row r="53" ht="50.25" customHeight="1">
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="43"/>
+      <c r="J53" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="42"/>
     </row>
     <row r="54" ht="33.75" customHeight="1">
-      <c r="B54" s="54"/>
-      <c r="C54" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55" ht="50.25" customHeight="1">
-      <c r="B55" s="54"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="62"/>
       <c r="D55" s="63" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="64" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G55" s="65"/>
-      <c r="H55" s="59" t="s">
-        <v>117</v>
+      <c r="H55" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="60"/>
+      <c r="J55" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56" ht="33.75" customHeight="1">
       <c r="C56" s="68"/>
@@ -2463,651 +3065,1203 @@
       <c r="G56" s="68"/>
       <c r="H56" s="68"/>
       <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="70"/>
     </row>
     <row r="57" ht="50.25" customHeight="1">
       <c r="B57" s="71" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="H57" s="72" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="73"/>
+      <c r="J57" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="74" t="s">
+        <v>144</v>
+      </c>
       <c r="N57" s="73"/>
     </row>
     <row r="58" ht="55.5" customHeight="1">
       <c r="B58" s="75"/>
-      <c r="C58" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="76" t="s">
-        <v>126</v>
-      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="77" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74" t="s">
+        <v>145</v>
       </c>
       <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="79"/>
-    </row>
-    <row r="59" ht="40.5" customHeight="1">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82" t="s">
+      <c r="J58" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N58" s="80"/>
+    </row>
+    <row r="59" ht="55.5" customHeight="1">
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="78"/>
+      <c r="J59" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N59" s="80"/>
+    </row>
+    <row r="60" ht="55.5" customHeight="1">
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" s="78"/>
+      <c r="J60" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" s="80"/>
+    </row>
+    <row r="61" ht="55.5" customHeight="1">
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="78"/>
+      <c r="J61" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N61" s="80"/>
+    </row>
+    <row r="62" ht="55.5" customHeight="1">
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="I62" s="78"/>
+      <c r="J62" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N62" s="80"/>
+    </row>
+    <row r="63" ht="55.5" customHeight="1">
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63" s="78"/>
+      <c r="J63" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N63" s="80"/>
+    </row>
+    <row r="64" ht="55.5" customHeight="1">
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64" s="78"/>
+      <c r="J64" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N64" s="80"/>
+    </row>
+    <row r="65" ht="55.5" customHeight="1">
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="78"/>
+      <c r="J65" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N65" s="80"/>
+    </row>
+    <row r="66" ht="55.5" customHeight="1">
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I66" s="78"/>
+      <c r="J66" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N66" s="80"/>
+    </row>
+    <row r="67" ht="55.5" customHeight="1">
+      <c r="B67" s="75"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="I67" s="78"/>
+      <c r="J67" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N67" s="80"/>
+    </row>
+    <row r="68" ht="55.5" customHeight="1">
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" s="78"/>
+      <c r="J68" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N68" s="80"/>
+    </row>
+    <row r="69" ht="55.5" customHeight="1">
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="78"/>
+      <c r="J69" s="79">
+        <v>44406.0</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="N69" s="80"/>
+    </row>
+    <row r="70" ht="55.5" customHeight="1">
+      <c r="B70" s="75"/>
+      <c r="C70" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="I70" s="84"/>
+      <c r="J70" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="N70" s="70"/>
+    </row>
+    <row r="71" ht="40.5" customHeight="1">
+      <c r="B71" s="86"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="79"/>
-    </row>
-    <row r="60" ht="36.75" customHeight="1">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="79"/>
-    </row>
-    <row r="61" ht="37.5" customHeight="1">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="79"/>
-    </row>
-    <row r="62" ht="35.25" customHeight="1">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="77"/>
-      <c r="H62" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="79"/>
-    </row>
-    <row r="63" ht="36.75" customHeight="1">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="77"/>
-      <c r="H63" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="79"/>
-    </row>
-    <row r="64" ht="39.0" customHeight="1">
-      <c r="B64" s="80"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="52" t="s">
+      <c r="F71" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I71" s="84"/>
+      <c r="J71" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N71" s="70"/>
+    </row>
+    <row r="72" ht="36.75" customHeight="1">
+      <c r="B72" s="86"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I72" s="84"/>
+      <c r="J72" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N72" s="70"/>
+    </row>
+    <row r="73" ht="37.5" customHeight="1">
+      <c r="B73" s="86"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I73" s="84"/>
+      <c r="J73" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N73" s="70"/>
+    </row>
+    <row r="74" ht="35.25" customHeight="1">
+      <c r="B74" s="86"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" s="84"/>
+      <c r="J74" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N74" s="70"/>
+    </row>
+    <row r="75" ht="36.75" customHeight="1">
+      <c r="B75" s="86"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="77"/>
-      <c r="H64" s="52" t="s">
+      <c r="F75" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I75" s="84"/>
+      <c r="J75" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N75" s="70"/>
+    </row>
+    <row r="76" ht="39.0" customHeight="1">
+      <c r="B76" s="86"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" s="84"/>
+      <c r="J76" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N76" s="70"/>
+    </row>
+    <row r="77" ht="39.75" customHeight="1">
+      <c r="B77" s="86"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="I77" s="84"/>
+      <c r="J77" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N77" s="70"/>
+    </row>
+    <row r="78" ht="42.0" customHeight="1">
+      <c r="B78" s="86"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="I78" s="84"/>
+      <c r="J78" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N78" s="70"/>
+    </row>
+    <row r="79" ht="39.75" customHeight="1">
+      <c r="B79" s="86"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I79" s="84"/>
+      <c r="J79" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N79" s="70"/>
+    </row>
+    <row r="80" ht="44.25" customHeight="1">
+      <c r="B80" s="86"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="I80" s="84"/>
+      <c r="J80" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N80" s="70"/>
+    </row>
+    <row r="81" ht="43.5" customHeight="1">
+      <c r="B81" s="86"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H81" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81" s="84"/>
+      <c r="J81" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N81" s="70"/>
+    </row>
+    <row r="82" ht="45.75" customHeight="1">
+      <c r="B82" s="86"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="84"/>
+      <c r="J82" s="33">
+        <v>44406.0</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N82" s="70"/>
+    </row>
+    <row r="83" ht="33.0" customHeight="1">
+      <c r="B83" s="86"/>
+      <c r="C83" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="N83" s="90"/>
+    </row>
+    <row r="84" ht="34.5" customHeight="1">
+      <c r="B84" s="91"/>
+      <c r="C84" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="87"/>
+      <c r="E84" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="I84" s="93"/>
+      <c r="J84" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="N84" s="90"/>
+    </row>
+    <row r="85" ht="34.5" customHeight="1">
+      <c r="B85" s="94"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="I85" s="93"/>
+      <c r="J85" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="N85" s="90"/>
+    </row>
+    <row r="86" ht="33.0" customHeight="1">
+      <c r="C86" s="90"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="I86" s="93"/>
+      <c r="J86" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="N86" s="93"/>
+    </row>
+    <row r="87" ht="33.75" customHeight="1">
+      <c r="C87" s="90"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I87" s="93"/>
+      <c r="J87" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="N87" s="93"/>
+    </row>
+    <row r="88" ht="34.5" customHeight="1">
+      <c r="C88" s="90"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="I88" s="93"/>
+      <c r="J88" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="N88" s="93"/>
+    </row>
+    <row r="89" ht="33.75" customHeight="1">
+      <c r="C89" s="90"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="I89" s="93"/>
+      <c r="J89" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="N89" s="93"/>
+    </row>
+    <row r="90" ht="50.25" customHeight="1">
+      <c r="C90" s="90"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="I90" s="93"/>
+      <c r="J90" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="N90" s="93"/>
+    </row>
+    <row r="91" ht="50.25" customHeight="1">
+      <c r="C91" s="90"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="I91" s="93"/>
+      <c r="J91" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="N91" s="93"/>
+    </row>
+    <row r="92" ht="31.5" customHeight="1">
+      <c r="C92" s="90"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="I92" s="93"/>
+      <c r="J92" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="N92" s="93"/>
+    </row>
+    <row r="93" ht="33.0" customHeight="1">
+      <c r="C93" s="90"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93" s="93"/>
+      <c r="J93" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K93" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="N93" s="93"/>
+    </row>
+    <row r="94" ht="36.0" customHeight="1">
+      <c r="C94" s="90"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="93"/>
+      <c r="J94" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="N94" s="93"/>
+    </row>
+    <row r="95" ht="31.5" customHeight="1">
+      <c r="C95" s="90"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="I95" s="93"/>
+      <c r="J95" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="N95" s="93"/>
+    </row>
+    <row r="96" ht="48.75" customHeight="1">
+      <c r="C96" s="90"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96" s="93"/>
+      <c r="J96" s="22">
+        <v>44406.0</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="N96" s="93"/>
+    </row>
+    <row r="97" ht="32.25" customHeight="1">
+      <c r="C97" s="90"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="93"/>
+      <c r="J97" s="22">
+        <v>44407.0</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="N97" s="93"/>
+    </row>
+    <row r="98" ht="49.5" customHeight="1">
+      <c r="C98" s="90"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="90"/>
+      <c r="F98" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="79"/>
-    </row>
-    <row r="65" ht="39.75" customHeight="1">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F65" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" s="77"/>
-      <c r="H65" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="79"/>
-    </row>
-    <row r="66" ht="42.0" customHeight="1">
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="77"/>
-      <c r="H66" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="79"/>
-    </row>
-    <row r="67" ht="39.75" customHeight="1">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="77"/>
-      <c r="H67" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="79"/>
-    </row>
-    <row r="68" ht="29.25" customHeight="1">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="77"/>
-      <c r="H68" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="79"/>
-    </row>
-    <row r="69" ht="30.0" customHeight="1">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" s="77"/>
-      <c r="H69" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="79"/>
-    </row>
-    <row r="70" ht="30.0" customHeight="1">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="77"/>
-      <c r="H70" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="79"/>
-    </row>
-    <row r="71" ht="33.0" customHeight="1">
-      <c r="B71" s="84"/>
-      <c r="C71" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E71" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-    </row>
-    <row r="72" ht="34.5" customHeight="1">
-      <c r="B72" s="88"/>
-      <c r="C72" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="85"/>
-      <c r="E72" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="87"/>
-    </row>
-    <row r="73" ht="34.5" customHeight="1">
-      <c r="B73" s="91"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="95"/>
-    </row>
-    <row r="74" ht="33.0" customHeight="1">
-      <c r="C74" s="87"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-    </row>
-    <row r="75" ht="33.75" customHeight="1">
-      <c r="C75" s="87"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-    </row>
-    <row r="76" ht="34.5" customHeight="1">
-      <c r="C76" s="87"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-    </row>
-    <row r="77" ht="33.75" customHeight="1">
-      <c r="C77" s="87"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-    </row>
-    <row r="78" ht="50.25" customHeight="1">
-      <c r="C78" s="87"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-    </row>
-    <row r="79" ht="33.0" customHeight="1">
-      <c r="C79" s="87"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-    </row>
-    <row r="80" ht="31.5" customHeight="1">
-      <c r="C80" s="87"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
-    </row>
-    <row r="81" ht="33.0" customHeight="1">
-      <c r="C81" s="87"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-    </row>
-    <row r="82" ht="36.0" customHeight="1">
-      <c r="C82" s="87"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="F82" s="94"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="90"/>
-      <c r="M82" s="90"/>
-      <c r="N82" s="94"/>
-    </row>
-    <row r="83" ht="31.5" customHeight="1">
-      <c r="C83" s="95"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="94"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="94"/>
-      <c r="N83" s="94"/>
-    </row>
-    <row r="84" ht="33.75" customHeight="1">
-      <c r="C84" s="95"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
-      <c r="K84" s="94"/>
-      <c r="L84" s="94"/>
-      <c r="M84" s="94"/>
-      <c r="N84" s="94"/>
-    </row>
-    <row r="85" ht="32.25" customHeight="1">
-      <c r="C85" s="95"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="94"/>
-      <c r="L85" s="94"/>
-      <c r="M85" s="94"/>
-      <c r="N85" s="94"/>
-    </row>
-    <row r="86">
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87">
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88">
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89">
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90">
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91">
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92">
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93">
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94">
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95">
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96">
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97">
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="I98" s="90"/>
+      <c r="J98" s="22">
+        <v>44408.0</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="N98" s="90"/>
     </row>
     <row r="99">
       <c r="I99" s="1"/>
@@ -6813,9 +7967,57 @@
       <c r="I1024" s="1"/>
       <c r="J1024" s="1"/>
     </row>
+    <row r="1025">
+      <c r="I1025" s="1"/>
+      <c r="J1025" s="1"/>
+    </row>
+    <row r="1026">
+      <c r="I1026" s="1"/>
+      <c r="J1026" s="1"/>
+    </row>
+    <row r="1027">
+      <c r="I1027" s="1"/>
+      <c r="J1027" s="1"/>
+    </row>
+    <row r="1028">
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1"/>
+    </row>
+    <row r="1029">
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1"/>
+    </row>
+    <row r="1030">
+      <c r="I1030" s="1"/>
+      <c r="J1030" s="1"/>
+    </row>
+    <row r="1031">
+      <c r="I1031" s="1"/>
+      <c r="J1031" s="1"/>
+    </row>
+    <row r="1032">
+      <c r="I1032" s="1"/>
+      <c r="J1032" s="1"/>
+    </row>
+    <row r="1033">
+      <c r="I1033" s="1"/>
+      <c r="J1033" s="1"/>
+    </row>
+    <row r="1034">
+      <c r="I1034" s="1"/>
+      <c r="J1034" s="1"/>
+    </row>
+    <row r="1035">
+      <c r="I1035" s="1"/>
+      <c r="J1035" s="1"/>
+    </row>
+    <row r="1036">
+      <c r="I1036" s="1"/>
+      <c r="J1036" s="1"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="L5:L55 L57:L71">
+    <dataValidation type="list" allowBlank="1" sqref="L5:L55 L57:L98">
       <formula1>"〇,✕"</formula1>
     </dataValidation>
   </dataValidations>
